--- a/ExcelCharts final.xlsx
+++ b/ExcelCharts final.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t xml:space="preserve">Dimensions </t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Running without specifying various threads and incrementing  Data Points</t>
+  </si>
+  <si>
+    <t>Seeking Time refers to Sorting Time</t>
   </si>
 </sst>
 </file>
@@ -135,8 +138,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -178,7 +185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -193,6 +200,8 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -207,9 +216,71 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -628,6 +699,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -647,6 +737,30 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1115,6 +1229,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1134,6 +1267,30 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2482,8 +2639,8 @@
   <autoFilter ref="B6:D10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="9"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="8"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="11"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2494,8 +2651,8 @@
   <autoFilter ref="B23:D27"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="7"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="6"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="9"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2506,8 +2663,8 @@
   <autoFilter ref="B39:D43"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="5"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="4"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="7"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2522,8 +2679,8 @@
     <tableColumn id="5" name="Dimensions"/>
     <tableColumn id="6" name="K"/>
     <tableColumn id="7" name="Max. Value"/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="3"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="2"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="5"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2532,6 +2689,22 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="B70:H76" totalsRowShown="0">
   <autoFilter ref="B70:H76"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Threads"/>
+    <tableColumn id="4" name="Data Points"/>
+    <tableColumn id="5" name="Dimensions"/>
+    <tableColumn id="6" name="K"/>
+    <tableColumn id="7" name="Max. Value"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="3"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="B85:H91" totalsRowShown="0">
+  <autoFilter ref="B85:H91"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Threads"/>
     <tableColumn id="4" name="Data Points"/>
@@ -2867,10 +3040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H76"/>
+  <dimension ref="B2:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2885,6 +3058,11 @@
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -3445,16 +3623,154 @@
         <v>4.3600000000000002E-3</v>
       </c>
     </row>
+    <row r="85" spans="2:8">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="16" thickBot="1">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1000</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>1000</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="2:8" ht="16" thickBot="1">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>2000</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>1000</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="2:8" ht="16" thickBot="1">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>4000</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>1000</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="2:8" ht="16" thickBot="1">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>8000</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>1000</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="2:8" ht="16" thickBot="1">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>16000</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>1000</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="2:8" ht="16" thickBot="1">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>32000</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>1000</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/ExcelCharts final.xlsx
+++ b/ExcelCharts final.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t xml:space="preserve">Dimensions </t>
   </si>
@@ -62,12 +62,15 @@
   <si>
     <t>Seeking Time refers to Sorting Time</t>
   </si>
+  <si>
+    <t xml:space="preserve">strong scaling: </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,16 +99,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -137,8 +163,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -172,8 +250,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -184,8 +330,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -202,6 +358,40 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -218,6 +408,40 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -957,6 +1181,830 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>100 Dimensions: Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100 Dimension</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$86:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$86:$G$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.113157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.067097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.111441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2137458328"/>
+        <c:axId val="-2136124920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2137458328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2136124920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2136124920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Calculation Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137458328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1000 Dimensions: Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1000 Dimension</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$86:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$90:$G$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.072764</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.576832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.292639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2077298488"/>
+        <c:axId val="2145317704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2077298488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2145317704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2145317704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Calculation Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2077298488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>100 Dimensions: Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100 Dimension</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$86:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$86:$G$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.113157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.067097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.111441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2138851448"/>
+        <c:axId val="-2134845240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2138851448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2134845240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2134845240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Calculation Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2138851448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>100 Dimensions: Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100 Dimension</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$86:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$86:$G$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.113157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.067097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.111441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2073919192"/>
+        <c:axId val="-2073917432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2073919192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073917432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2073917432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Calculation Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073919192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -1916,6 +2964,30 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1935,6 +3007,30 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Calculation Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2268,6 +3364,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2287,6 +3402,30 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Seeking Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2631,6 +3770,134 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11043</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>55218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>757582</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>7179</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>150743</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>746539</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>150743</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2703,8 +3970,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="B85:H91" totalsRowShown="0">
-  <autoFilter ref="B85:H91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="B85:H101" totalsRowShown="0">
+  <autoFilter ref="B85:H101"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Threads"/>
     <tableColumn id="4" name="Data Points"/>
@@ -3040,10 +4307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H91"/>
+  <dimension ref="B2:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="D81" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q108" sqref="Q108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3056,6 +4323,8 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
+    <col min="11" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -3183,12 +4452,17 @@
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="36" spans="2:17">
+      <c r="Q36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:17">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +4473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="16" thickBot="1">
+    <row r="40" spans="2:17" ht="16" thickBot="1">
       <c r="B40">
         <v>100</v>
       </c>
@@ -3210,7 +4484,7 @@
         <v>1.8420000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="16" thickBot="1">
+    <row r="41" spans="2:17" ht="16" thickBot="1">
       <c r="B41">
         <v>1000</v>
       </c>
@@ -3221,14 +4495,14 @@
         <v>1.534E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="16" thickBot="1">
+    <row r="42" spans="2:17" ht="16" thickBot="1">
       <c r="B42">
         <v>10000</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" ht="16" thickBot="1">
+    <row r="43" spans="2:17" ht="16" thickBot="1">
       <c r="B43">
         <v>100000</v>
       </c>
@@ -3646,7 +4920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="16" thickBot="1">
+    <row r="86" spans="2:8">
       <c r="B86">
         <v>1</v>
       </c>
@@ -3654,111 +4928,365 @@
         <v>1000</v>
       </c>
       <c r="D86">
+        <v>100</v>
+      </c>
+      <c r="E86">
         <v>10</v>
       </c>
-      <c r="E86">
-        <v>5</v>
-      </c>
       <c r="F86">
         <v>1000</v>
       </c>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="G86">
+        <v>0.11315699999999999</v>
+      </c>
+      <c r="H86">
+        <v>1.13E-4</v>
+      </c>
     </row>
     <row r="87" spans="2:8" ht="16" thickBot="1">
       <c r="B87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="E87">
         <v>10</v>
       </c>
-      <c r="E87">
-        <v>5</v>
-      </c>
       <c r="F87">
         <v>1000</v>
       </c>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="2:8" ht="16" thickBot="1">
+      <c r="G87" s="8">
+        <v>0.11328000000000001</v>
+      </c>
+      <c r="H87" s="9">
+        <v>1.01E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
       <c r="B88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="D88">
+        <v>100</v>
+      </c>
+      <c r="E88">
         <v>10</v>
       </c>
-      <c r="E88">
-        <v>5</v>
-      </c>
       <c r="F88">
         <v>1000</v>
       </c>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="2:8" ht="16" thickBot="1">
+      <c r="G88">
+        <v>6.7097000000000004E-2</v>
+      </c>
+      <c r="H88">
+        <v>9.3999999999999994E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
       <c r="B89">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C89">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="D89">
+        <v>100</v>
+      </c>
+      <c r="E89">
         <v>10</v>
       </c>
-      <c r="E89">
-        <v>5</v>
-      </c>
       <c r="F89">
         <v>1000</v>
       </c>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="2:8" ht="16" thickBot="1">
+      <c r="G89">
+        <v>0.111441</v>
+      </c>
+      <c r="H89">
+        <v>9.2E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="D90">
+        <v>1000</v>
+      </c>
+      <c r="E90">
         <v>10</v>
       </c>
-      <c r="E90">
-        <v>5</v>
-      </c>
       <c r="F90">
         <v>1000</v>
       </c>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="2:8" ht="16" thickBot="1">
+      <c r="G90">
+        <v>1.0727640000000001</v>
+      </c>
+      <c r="H90">
+        <v>1.11E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
       <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>1000</v>
+      </c>
+      <c r="D91">
+        <v>1000</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>1000</v>
+      </c>
+      <c r="G91">
+        <v>0.57683200000000001</v>
+      </c>
+      <c r="H91">
+        <v>1.01E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>1000</v>
+      </c>
+      <c r="D92">
+        <v>1000</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>1000</v>
+      </c>
+      <c r="G92">
+        <v>0.29263899999999998</v>
+      </c>
+      <c r="H92">
+        <v>3.4120000000000001E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="7">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>1000</v>
+      </c>
+      <c r="D93">
+        <v>1000</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>1000</v>
+      </c>
+      <c r="G93">
+        <v>0.93449000000000004</v>
+      </c>
+      <c r="H93">
+        <v>9.2E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C91">
-        <v>32000</v>
-      </c>
-      <c r="D91">
+      <c r="C94">
+        <v>1000</v>
+      </c>
+      <c r="D94">
+        <v>10000</v>
+      </c>
+      <c r="E94">
         <v>10</v>
       </c>
-      <c r="E91">
-        <v>5</v>
-      </c>
-      <c r="F91">
-        <v>1000</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="F94">
+        <v>1000</v>
+      </c>
+      <c r="G94">
+        <v>11.026736</v>
+      </c>
+      <c r="H94">
+        <v>1.12E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="5">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>1000</v>
+      </c>
+      <c r="D95">
+        <v>10000</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>1000</v>
+      </c>
+      <c r="G95">
+        <v>5.4322790000000003</v>
+      </c>
+      <c r="H95">
+        <v>1.01E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="4">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>1000</v>
+      </c>
+      <c r="D96">
+        <v>10000</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>1000</v>
+      </c>
+      <c r="G96">
+        <v>2.6716540000000002</v>
+      </c>
+      <c r="H96">
+        <v>9.5E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="6">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>1000</v>
+      </c>
+      <c r="D97">
+        <v>10000</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>1000</v>
+      </c>
+      <c r="G97">
+        <v>1.3112900000000001</v>
+      </c>
+      <c r="H97">
+        <v>9.3999999999999994E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="6">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1000</v>
+      </c>
+      <c r="D98">
+        <v>100000</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>1000</v>
+      </c>
+      <c r="G98">
+        <v>111.869328</v>
+      </c>
+      <c r="H98">
+        <v>1.12E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="6">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>1000</v>
+      </c>
+      <c r="D99">
+        <v>100000</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99">
+        <v>1000</v>
+      </c>
+      <c r="G99">
+        <v>57.212431000000002</v>
+      </c>
+      <c r="H99">
+        <v>1.01E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="6">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>1000</v>
+      </c>
+      <c r="D100">
+        <v>100000</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>1000</v>
+      </c>
+      <c r="G100">
+        <v>28.890238</v>
+      </c>
+      <c r="H100">
+        <v>9.6000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="6">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>1000</v>
+      </c>
+      <c r="D101">
+        <v>100000</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <v>1000</v>
+      </c>
+      <c r="G101">
+        <v>14.769971</v>
+      </c>
+      <c r="H101">
+        <v>9.6000000000000002E-5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ExcelCharts final.xlsx
+++ b/ExcelCharts final.xlsx
@@ -1618,7 +1618,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>100 Dimensions: Threads</a:t>
+              <a:t>10000 Dimensions: Threads</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1640,7 +1640,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>100 Dimension</c:v>
+            <c:v>10000 Dimension</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
@@ -1665,21 +1665,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$86:$G$89</c:f>
+              <c:f>Sheet1!$G$94:$G$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.113157</c:v>
+                  <c:v>11.026736</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11328</c:v>
+                  <c:v>5.432279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.067097</c:v>
+                  <c:v>2.671654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.111441</c:v>
+                  <c:v>1.31129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,7 +1824,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>100 Dimensions: Threads</a:t>
+              <a:t>100000 Dimensions: Threads</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1846,11 +1846,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>100 Dimension</c:v>
+            <c:v>100000 Dimension</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$86:$B$89</c:f>
+              <c:f>Sheet1!$B$98:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1871,21 +1871,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$86:$G$89</c:f>
+              <c:f>Sheet1!$G$98:$G$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.113157</c:v>
+                  <c:v>111.869328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11328</c:v>
+                  <c:v>57.212431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.067097</c:v>
+                  <c:v>28.890238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.111441</c:v>
+                  <c:v>14.769971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3804,16 +3804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>11043</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>55218</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>773043</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>73361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>757582</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>7179</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>539868</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>25322</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3836,16 +3836,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>780142</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>150743</xdr:rowOff>
+      <xdr:colOff>504371</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>96313</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3868,16 +3868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>580572</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>185373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>746539</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>150743</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>343453</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>136544</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4309,7 +4309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D81" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B86" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="Q108" sqref="Q108"/>
     </sheetView>
   </sheetViews>

--- a/ExcelCharts final.xlsx
+++ b/ExcelCharts final.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t xml:space="preserve">Dimensions </t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Seeking Time refers to Sorting Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strong scaling: </t>
   </si>
 </sst>
 </file>
@@ -4307,10 +4304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q101"/>
+  <dimension ref="B2:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B86" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q108" sqref="Q108"/>
+    <sheetView tabSelected="1" topLeftCell="B99" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q138" sqref="Q138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4452,17 +4449,12 @@
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="36" spans="2:17">
-      <c r="Q36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -4473,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="16" thickBot="1">
+    <row r="40" spans="2:4" ht="16" thickBot="1">
       <c r="B40">
         <v>100</v>
       </c>
@@ -4484,7 +4476,7 @@
         <v>1.8420000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="16" thickBot="1">
+    <row r="41" spans="2:4" ht="16" thickBot="1">
       <c r="B41">
         <v>1000</v>
       </c>
@@ -4495,14 +4487,14 @@
         <v>1.534E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:17" ht="16" thickBot="1">
+    <row r="42" spans="2:4" ht="16" thickBot="1">
       <c r="B42">
         <v>10000</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:17" ht="16" thickBot="1">
+    <row r="43" spans="2:4" ht="16" thickBot="1">
       <c r="B43">
         <v>100000</v>
       </c>

--- a/ExcelCharts final.xlsx
+++ b/ExcelCharts final.xlsx
@@ -7,7 +7,9 @@
     <workbookView xWindow="-5440" yWindow="-24020" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Strong Scale" sheetId="2" r:id="rId2"/>
+    <sheet name="Weak Scaling" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
   <si>
     <t xml:space="preserve">Dimensions </t>
   </si>
@@ -62,12 +64,18 @@
   <si>
     <t>Seeking Time refers to Sorting Time</t>
   </si>
+  <si>
+    <t xml:space="preserve">Weak Scaling </t>
+  </si>
+  <si>
+    <t>Strong Scale</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,12 +105,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +161,20 @@
         <bgColor rgb="FFEBF1DE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor rgb="FF9BBB59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor rgb="FFD8E4BC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -212,8 +258,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -315,8 +468,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -331,14 +530,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -389,6 +599,29 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -439,9 +672,761 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="37">
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BBB59"/>
+          <bgColor rgb="FF9BBB59"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E4BC"/>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E4BC"/>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BBB59"/>
+          <bgColor rgb="FF9BBB59"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E4BC"/>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E4BC"/>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BBB59"/>
+          <bgColor rgb="FF9BBB59"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E4BC"/>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E4BC"/>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1059,7 +2044,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$71:$C$76</c:f>
+              <c:f>Overview!$C$71:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1229,7 +2214,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$86:$B$89</c:f>
+              <c:f>Overview!$B$86:$B$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1250,7 +2235,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$86:$G$89</c:f>
+              <c:f>Overview!$G$86:$G$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1435,7 +2420,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$86:$B$89</c:f>
+              <c:f>Overview!$B$86:$B$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1456,7 +2441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$90:$G$93</c:f>
+              <c:f>Overview!$G$90:$G$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1641,7 +2626,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$86:$B$89</c:f>
+              <c:f>Overview!$B$86:$B$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1662,7 +2647,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$94:$G$97</c:f>
+              <c:f>Overview!$G$94:$G$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1847,7 +2832,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$98:$B$101</c:f>
+              <c:f>Overview!$B$98:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1868,7 +2853,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$98:$G$101</c:f>
+              <c:f>Overview!$G$98:$G$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2002,6 +2987,1151 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1000 Dimensions (Weak</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scaling)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>: Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Increasing Data Points</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Table9[Threads]</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table9[Matrix Calc Time]</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.125201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.571374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.760692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.329503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.556775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.728961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2079762840"/>
+        <c:axId val="-2080332584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2079762840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2080332584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2080332584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Calculation Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2079762840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10000 Data Points: Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10000 Data Points</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Overview!$B$55:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$G$55:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>112.225433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.63489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.642496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.352129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.208957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.573828000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.698535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.001685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2139839848"/>
+        <c:axId val="2141952120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2139839848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2141952120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2141952120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Calculation Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139839848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10000 Data Points: Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Average Seeking Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10000 Data Points</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Overview!$B$55:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$H$55:$H$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.001507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.024881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.001324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.235651</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.001407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2133882408"/>
+        <c:axId val="-2073666680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2133882408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073666680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2073666680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Seeking Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133882408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1000 Dimensions (Weak</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scaling)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>: Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Increasing Data Points</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Overview!$B$107:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$G$107:$G$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.125201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.571374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.760692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.329503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.556775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.728961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2142899128"/>
+        <c:axId val="-2107036472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2142899128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2107036472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2107036472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Calculation Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2142899128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10000 Data Points (Strong</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scaling) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>: Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10000 Data Points</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Overview!$B$55:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$G$55:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>112.225433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.63489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.642496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.352129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.208957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.573828000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.698535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.001685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2072091144"/>
+        <c:axId val="-2072545304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2072091144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2072545304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2072545304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Calculation Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2072091144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -2140,6 +4270,457 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2144524648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10000 Data Points (Strong Scaling): Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Average Seeking Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10000 Data Points</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Overview!$B$55:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$H$55:$H$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.001507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.024881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.001324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.235651</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.001407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2074465656"/>
+        <c:axId val="-2058711880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2074465656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2058711880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2058711880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Seeking Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2074465656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1000 Dimensions (Weak</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scaling)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>: Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Increasing Data Points</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Overview!$B$107:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$G$107:$G$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.125201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.571374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.760692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.329503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.556775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.728961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2107358680"/>
+        <c:axId val="-2107122648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2107358680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2107122648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2107122648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Calculation Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2107358680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2592,7 +5173,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$40:$C$41</c:f>
+              <c:f>Overview!$C$40:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2744,7 +5325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$40:$D$41</c:f>
+              <c:f>Overview!$D$40:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3275,7 +5856,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$55:$B$62</c:f>
+              <c:f>Overview!$B$55:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3801,16 +6382,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>773043</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>73361</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>620643</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>9861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>539868</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>25322</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>501768</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>139622</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3833,16 +6414,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>780142</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>145142</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>18142</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>107042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504371</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>96313</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123371</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>45513</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3865,16 +6446,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>580572</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>185373</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>436390</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>159973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>343453</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>136544</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>580271</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>98444</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3895,6 +6476,240 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>121557</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>14942</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>464373</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>449431</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Chart 27"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>121557</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14942</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>464373</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>449431</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121557</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3903,10 +6718,41 @@
   <autoFilter ref="B6:D10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="11"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="10"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="36"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1451113" displayName="Table1451113" ref="D6:J14" totalsRowShown="0">
+  <autoFilter ref="D6:J14"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Threads"/>
+    <tableColumn id="4" name="Data Points"/>
+    <tableColumn id="5" name="Dimensions"/>
+    <tableColumn id="6" name="K"/>
+    <tableColumn id="7" name="Max. Value"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="8"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table91214" displayName="Table91214" ref="C4:H10" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <autoFilter ref="C4:H10"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Threads" dataDxfId="6"/>
+    <tableColumn id="2" name="Data Points" dataDxfId="5"/>
+    <tableColumn id="3" name="Dimensions" dataDxfId="4"/>
+    <tableColumn id="4" name="K" dataDxfId="3"/>
+    <tableColumn id="5" name="Max. Value"/>
+    <tableColumn id="6" name="Matrix Calc Time" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3915,8 +6761,8 @@
   <autoFilter ref="B23:D27"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="9"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="8"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="34"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3927,8 +6773,8 @@
   <autoFilter ref="B39:D43"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="7"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="6"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="32"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3943,8 +6789,8 @@
     <tableColumn id="5" name="Dimensions"/>
     <tableColumn id="6" name="K"/>
     <tableColumn id="7" name="Max. Value"/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="5"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="4"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="30"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3959,8 +6805,8 @@
     <tableColumn id="5" name="Dimensions"/>
     <tableColumn id="6" name="K"/>
     <tableColumn id="7" name="Max. Value"/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="3"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="2"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="28"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3975,10 +6821,56 @@
     <tableColumn id="5" name="Dimensions"/>
     <tableColumn id="6" name="K"/>
     <tableColumn id="7" name="Max. Value"/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="1"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="0"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="26"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B106:G112" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="24">
+  <autoFilter ref="B106:G112"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Threads" dataDxfId="23"/>
+    <tableColumn id="2" name="Data Points" dataDxfId="22"/>
+    <tableColumn id="3" name="Dimensions" dataDxfId="21"/>
+    <tableColumn id="4" name="K" dataDxfId="20"/>
+    <tableColumn id="5" name="Max. Value"/>
+    <tableColumn id="6" name="Matrix Calc Time" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14511" displayName="Table14511" ref="AE8:AK16" totalsRowShown="0">
+  <autoFilter ref="AE8:AK16"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Threads"/>
+    <tableColumn id="4" name="Data Points"/>
+    <tableColumn id="5" name="Dimensions"/>
+    <tableColumn id="6" name="K"/>
+    <tableColumn id="7" name="Max. Value"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="17"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table912" displayName="Table912" ref="AE32:AJ38" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9">
+  <autoFilter ref="AE32:AJ38"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Threads" dataDxfId="15"/>
+    <tableColumn id="2" name="Data Points" dataDxfId="14"/>
+    <tableColumn id="3" name="Dimensions" dataDxfId="13"/>
+    <tableColumn id="4" name="K" dataDxfId="12"/>
+    <tableColumn id="5" name="Max. Value"/>
+    <tableColumn id="6" name="Matrix Calc Time" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4304,18 +7196,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H101"/>
+  <dimension ref="B2:AK112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B99" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q138" sqref="Q138"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -4324,17 +7216,17 @@
     <col min="11" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:37">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:37">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:37">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -4344,8 +7236,11 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="16" thickBot="1">
+      <c r="AE6" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" ht="16" thickBot="1">
       <c r="B7">
         <v>100</v>
       </c>
@@ -4355,8 +7250,11 @@
       <c r="D7" s="1">
         <v>1.1E-5</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="16" thickBot="1">
+      <c r="AE7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" ht="16" thickBot="1">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -4366,8 +7264,29 @@
       <c r="D8" s="1">
         <v>1.1E-5</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="16" thickBot="1">
+      <c r="AE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" ht="16" thickBot="1">
       <c r="B9">
         <v>10000</v>
       </c>
@@ -4377,8 +7296,29 @@
       <c r="D9" s="1">
         <v>1.1E-5</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="16" thickBot="1">
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>10000</v>
+      </c>
+      <c r="AG9">
+        <v>1000</v>
+      </c>
+      <c r="AH9">
+        <v>50</v>
+      </c>
+      <c r="AI9">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>112.225433</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>1.5070000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" ht="16" thickBot="1">
       <c r="B10">
         <v>100000</v>
       </c>
@@ -4388,13 +7328,178 @@
       <c r="D10" s="2">
         <v>1.1E-5</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <v>10000</v>
+      </c>
+      <c r="AG10">
+        <v>1000</v>
+      </c>
+      <c r="AH10">
+        <v>50</v>
+      </c>
+      <c r="AI10">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>57.634889999999999</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>1.2949999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" ht="16" thickBot="1">
+      <c r="AE11">
+        <f t="shared" ref="AE11:AE16" si="0">AE10*2</f>
+        <v>4</v>
+      </c>
+      <c r="AF11">
+        <v>10000</v>
+      </c>
+      <c r="AG11">
+        <v>1000</v>
+      </c>
+      <c r="AH11">
+        <v>50</v>
+      </c>
+      <c r="AI11">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>23.642496000000001</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>1.2340000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" ht="16" thickBot="1">
+      <c r="AE12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AF12">
+        <v>10000</v>
+      </c>
+      <c r="AG12">
+        <v>1000</v>
+      </c>
+      <c r="AH12">
+        <v>50</v>
+      </c>
+      <c r="AI12">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>12.352129</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>1.2279999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" ht="16" thickBot="1">
+      <c r="AE13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AF13">
+        <v>10000</v>
+      </c>
+      <c r="AG13">
+        <v>1000</v>
+      </c>
+      <c r="AH13">
+        <v>50</v>
+      </c>
+      <c r="AI13">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>8.2089569999999998</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>2.4881E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" ht="16" thickBot="1">
+      <c r="AE14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AF14">
+        <v>10000</v>
+      </c>
+      <c r="AG14">
+        <v>1000</v>
+      </c>
+      <c r="AH14">
+        <v>50</v>
+      </c>
+      <c r="AI14">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>8.5738280000000007</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>1.3240000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" ht="16" thickBot="1">
+      <c r="AE15">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="AF15">
+        <v>10000</v>
+      </c>
+      <c r="AG15">
+        <v>1000</v>
+      </c>
+      <c r="AH15">
+        <v>50</v>
+      </c>
+      <c r="AI15">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>10.698535</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>7.2356509999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" ht="16" thickBot="1">
+      <c r="AE16">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="AF16">
+        <v>10000</v>
+      </c>
+      <c r="AG16">
+        <v>1000</v>
+      </c>
+      <c r="AH16">
+        <v>50</v>
+      </c>
+      <c r="AI16">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>1.6850000000000001E-3</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>1.407E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36">
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:36">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -4405,7 +7510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="16" thickBot="1">
+    <row r="24" spans="2:36" ht="16" thickBot="1">
       <c r="B24">
         <v>100</v>
       </c>
@@ -4416,7 +7521,7 @@
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="16" thickBot="1">
+    <row r="25" spans="2:36" ht="16" thickBot="1">
       <c r="B25">
         <v>1000</v>
       </c>
@@ -4427,7 +7532,7 @@
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="16" thickBot="1">
+    <row r="26" spans="2:36" ht="16" thickBot="1">
       <c r="B26">
         <v>10000</v>
       </c>
@@ -4438,7 +7543,7 @@
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="16" thickBot="1">
+    <row r="27" spans="2:36" ht="16" thickBot="1">
       <c r="B27">
         <v>100000</v>
       </c>
@@ -4449,12 +7554,155 @@
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="31" spans="2:36">
+      <c r="AE31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" ht="16" thickBot="1">
+      <c r="AE32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ32" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:36" ht="17" thickTop="1">
+      <c r="AE33" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="15">
+        <v>1024</v>
+      </c>
+      <c r="AG33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AH33" s="12">
+        <v>5</v>
+      </c>
+      <c r="AI33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" s="16">
+        <v>1.1252009999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:36" ht="16">
+      <c r="AE34" s="14">
+        <v>4</v>
+      </c>
+      <c r="AF34" s="15">
+        <v>2048</v>
+      </c>
+      <c r="AG34" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AH34" s="12">
+        <v>5</v>
+      </c>
+      <c r="AI34" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" s="16">
+        <v>0.57137400000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="2:36" ht="16">
+      <c r="AE35" s="14">
+        <v>16</v>
+      </c>
+      <c r="AF35" s="15">
+        <v>4096</v>
+      </c>
+      <c r="AG35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AH35" s="12">
+        <v>5</v>
+      </c>
+      <c r="AI35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" s="16">
+        <v>0.76069200000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" ht="16">
+      <c r="AE36" s="14">
+        <v>32</v>
+      </c>
+      <c r="AF36" s="15">
+        <v>8192</v>
+      </c>
+      <c r="AG36" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AH36" s="12">
+        <v>5</v>
+      </c>
+      <c r="AI36" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" s="16">
+        <v>1.3295030000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:36" ht="16">
+      <c r="AE37" s="14">
+        <v>64</v>
+      </c>
+      <c r="AF37" s="15">
+        <v>16584</v>
+      </c>
+      <c r="AG37" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AH37" s="12">
+        <v>5</v>
+      </c>
+      <c r="AI37" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" s="16">
+        <v>19.556774999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" ht="16">
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
+      <c r="AE38" s="17">
+        <v>128</v>
+      </c>
+      <c r="AF38" s="18">
+        <v>33168</v>
+      </c>
+      <c r="AG38" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AH38" s="12">
+        <v>5</v>
+      </c>
+      <c r="AI38" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" s="19">
+        <v>49.728960999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -4465,7 +7713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="16" thickBot="1">
+    <row r="40" spans="2:36" ht="16" thickBot="1">
       <c r="B40">
         <v>100</v>
       </c>
@@ -4476,7 +7724,7 @@
         <v>1.8420000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="16" thickBot="1">
+    <row r="41" spans="2:36" ht="16" thickBot="1">
       <c r="B41">
         <v>1000</v>
       </c>
@@ -4487,19 +7735,24 @@
         <v>1.534E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="16" thickBot="1">
+    <row r="42" spans="2:36" ht="16" thickBot="1">
       <c r="B42">
         <v>10000</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" ht="16" thickBot="1">
+    <row r="43" spans="2:36" ht="16" thickBot="1">
       <c r="B43">
         <v>100000</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="3" t="s">
@@ -4577,7 +7830,7 @@
     </row>
     <row r="57" spans="2:8" ht="16" thickBot="1">
       <c r="B57">
-        <f t="shared" ref="B57:B62" si="0">B56*2</f>
+        <f t="shared" ref="B57:B62" si="1">B56*2</f>
         <v>4</v>
       </c>
       <c r="C57">
@@ -4601,7 +7854,7 @@
     </row>
     <row r="58" spans="2:8" ht="16" thickBot="1">
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C58">
@@ -4625,7 +7878,7 @@
     </row>
     <row r="59" spans="2:8" ht="16" thickBot="1">
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C59">
@@ -4649,7 +7902,7 @@
     </row>
     <row r="60" spans="2:8" ht="16" thickBot="1">
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C60">
@@ -4673,7 +7926,7 @@
     </row>
     <row r="61" spans="2:8" ht="16" thickBot="1">
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C61">
@@ -4697,7 +7950,7 @@
     </row>
     <row r="62" spans="2:8" ht="16" thickBot="1">
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="C62">
@@ -5280,17 +8533,581 @@
         <v>9.6000000000000002E-5</v>
       </c>
     </row>
+    <row r="105" spans="2:8">
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="16" thickBot="1">
+      <c r="B106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="17" thickTop="1">
+      <c r="B107" s="14">
+        <v>1</v>
+      </c>
+      <c r="C107" s="15">
+        <v>1024</v>
+      </c>
+      <c r="D107" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E107" s="12">
+        <v>5</v>
+      </c>
+      <c r="F107" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G107" s="16">
+        <v>1.1252009999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="16">
+      <c r="B108" s="14">
+        <v>4</v>
+      </c>
+      <c r="C108" s="15">
+        <v>2048</v>
+      </c>
+      <c r="D108" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E108" s="12">
+        <v>5</v>
+      </c>
+      <c r="F108" s="13">
+        <v>1000</v>
+      </c>
+      <c r="G108" s="16">
+        <v>0.57137400000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="16">
+      <c r="B109" s="14">
+        <v>16</v>
+      </c>
+      <c r="C109" s="15">
+        <v>4096</v>
+      </c>
+      <c r="D109" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E109" s="12">
+        <v>5</v>
+      </c>
+      <c r="F109" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G109" s="16">
+        <v>0.76069200000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="16">
+      <c r="B110" s="14">
+        <v>32</v>
+      </c>
+      <c r="C110" s="15">
+        <v>8192</v>
+      </c>
+      <c r="D110" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E110" s="12">
+        <v>5</v>
+      </c>
+      <c r="F110" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G110" s="16">
+        <v>1.3295030000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="16">
+      <c r="B111" s="14">
+        <v>64</v>
+      </c>
+      <c r="C111" s="15">
+        <v>16584</v>
+      </c>
+      <c r="D111" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E111" s="12">
+        <v>5</v>
+      </c>
+      <c r="F111" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G111" s="16">
+        <v>19.556774999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="16">
+      <c r="B112" s="17">
+        <v>128</v>
+      </c>
+      <c r="C112" s="18">
+        <v>33168</v>
+      </c>
+      <c r="D112" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E112" s="12">
+        <v>5</v>
+      </c>
+      <c r="F112" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G112" s="19">
+        <v>49.728960999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="4" spans="4:10">
+      <c r="D4" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10">
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" ht="16" thickBot="1">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>112.225433</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.5070000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" ht="16" thickBot="1">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>57.634889999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.2949999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" ht="16" thickBot="1">
+      <c r="D9">
+        <f t="shared" ref="D9:D14" si="0">D8*2</f>
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>23.642496000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.2340000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" ht="16" thickBot="1">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>10000</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>12.352129</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.2279999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" ht="16" thickBot="1">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8.2089569999999998</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.4881E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" ht="16" thickBot="1">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8.5738280000000007</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.3240000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" ht="16" thickBot="1">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>10000</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10.698535</v>
+      </c>
+      <c r="J13" s="2">
+        <v>7.2356509999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" ht="16" thickBot="1">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.6850000000000001E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.407E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="16" thickBot="1">
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="17" thickTop="1">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1024</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="12">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1.1252009999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="16">
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2048</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.57137400000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="16">
+      <c r="C7" s="14">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15">
+        <v>4096</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="12">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.76069200000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="16">
+      <c r="C8" s="14">
+        <v>32</v>
+      </c>
+      <c r="D8" s="15">
+        <v>8192</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1.3295030000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="16">
+      <c r="C9" s="14">
+        <v>64</v>
+      </c>
+      <c r="D9" s="15">
+        <v>16584</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="16">
+        <v>19.556774999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="16">
+      <c r="C10" s="17">
+        <v>128</v>
+      </c>
+      <c r="D10" s="18">
+        <v>33168</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="12">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="19">
+        <v>49.728960999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
